--- a/src/assets/formats/update-employee-biometricId.xlsx
+++ b/src/assets/formats/update-employee-biometricId.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Name</t>
   </si>
@@ -30,32 +30,15 @@
     <t>Code</t>
   </si>
   <si>
-    <t>Your Organization Name</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>New Biometric Id</t>
-  </si>
-  <si>
-    <t>Abhi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -98,19 +81,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -381,7 +358,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -389,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -400,38 +377,15 @@
     <col min="1" max="2" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4"/>
-    </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" ht="31.5">
-      <c r="A3" s="1" t="s">
+    <row r="1" spans="1:3" s="2" customFormat="1" ht="31.5">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>112233</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>112233</v>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
